--- a/Code/Results/Cases/Case_4_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.029669431125585</v>
+        <v>1.065987540171553</v>
       </c>
       <c r="D2">
-        <v>1.042333209534741</v>
+        <v>1.06626980592657</v>
       </c>
       <c r="E2">
-        <v>1.037658098249374</v>
+        <v>1.069694012749479</v>
       </c>
       <c r="F2">
-        <v>1.044541280128301</v>
+        <v>1.07548978111005</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054245539059189</v>
+        <v>1.051618085871973</v>
       </c>
       <c r="J2">
-        <v>1.050997553599758</v>
+        <v>1.070939845295699</v>
       </c>
       <c r="K2">
-        <v>1.05323267304937</v>
+        <v>1.068980807371998</v>
       </c>
       <c r="L2">
-        <v>1.048616588852211</v>
+        <v>1.072395836392625</v>
       </c>
       <c r="M2">
-        <v>1.055413093940477</v>
+        <v>1.078176214448922</v>
       </c>
       <c r="N2">
-        <v>1.052490090676974</v>
+        <v>1.072460702714536</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03659903823707</v>
+        <v>1.067374068262262</v>
       </c>
       <c r="D3">
-        <v>1.047754766163281</v>
+        <v>1.067368066606238</v>
       </c>
       <c r="E3">
-        <v>1.04410320458551</v>
+        <v>1.071032202015362</v>
       </c>
       <c r="F3">
-        <v>1.050815267768823</v>
+        <v>1.07679624286016</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056851538420689</v>
+        <v>1.052063197447674</v>
       </c>
       <c r="J3">
-        <v>1.056139373421746</v>
+        <v>1.071980122685763</v>
       </c>
       <c r="K3">
-        <v>1.057811010812601</v>
+        <v>1.069893922464409</v>
       </c>
       <c r="L3">
-        <v>1.054201240810274</v>
+        <v>1.073548951770737</v>
       </c>
       <c r="M3">
-        <v>1.060836761225597</v>
+        <v>1.079298802755824</v>
       </c>
       <c r="N3">
-        <v>1.057639212472885</v>
+        <v>1.073502457417816</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.040959083226489</v>
+        <v>1.068270349286634</v>
       </c>
       <c r="D4">
-        <v>1.051168772820304</v>
+        <v>1.068077858426915</v>
       </c>
       <c r="E4">
-        <v>1.048163550775967</v>
+        <v>1.071897537051234</v>
       </c>
       <c r="F4">
-        <v>1.054769262737067</v>
+        <v>1.077641118955275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058480393439063</v>
+        <v>1.05234949458882</v>
       </c>
       <c r="J4">
-        <v>1.059370071420732</v>
+        <v>1.072651872903893</v>
       </c>
       <c r="K4">
-        <v>1.060686499957934</v>
+        <v>1.070483319425082</v>
       </c>
       <c r="L4">
-        <v>1.057713461466608</v>
+        <v>1.074293986302073</v>
       </c>
       <c r="M4">
-        <v>1.064248726932425</v>
+        <v>1.08002414636963</v>
       </c>
       <c r="N4">
-        <v>1.060874498433594</v>
+        <v>1.074175161598305</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042763918752408</v>
+        <v>1.068646936317945</v>
       </c>
       <c r="D5">
-        <v>1.052582586660164</v>
+        <v>1.068376052968287</v>
       </c>
       <c r="E5">
-        <v>1.049845504894362</v>
+        <v>1.07226119321984</v>
       </c>
       <c r="F5">
-        <v>1.056407489223952</v>
+        <v>1.077996190816976</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059152008853644</v>
+        <v>1.052469443809223</v>
       </c>
       <c r="J5">
-        <v>1.060706285759722</v>
+        <v>1.072933950045571</v>
       </c>
       <c r="K5">
-        <v>1.061875504058168</v>
+        <v>1.070730757796366</v>
       </c>
       <c r="L5">
-        <v>1.059166905330543</v>
+        <v>1.074606937206721</v>
       </c>
       <c r="M5">
-        <v>1.065660904883951</v>
+        <v>1.080328833808568</v>
       </c>
       <c r="N5">
-        <v>1.062212610350212</v>
+        <v>1.074457639321881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.043065351463244</v>
+        <v>1.068710154792122</v>
       </c>
       <c r="D6">
-        <v>1.052818745595998</v>
+        <v>1.06842610939057</v>
       </c>
       <c r="E6">
-        <v>1.050126482449316</v>
+        <v>1.072322245145835</v>
       </c>
       <c r="F6">
-        <v>1.05668118054641</v>
+        <v>1.078055802365557</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059264020850349</v>
+        <v>1.052489559810017</v>
       </c>
       <c r="J6">
-        <v>1.060929384308211</v>
+        <v>1.072981292983704</v>
       </c>
       <c r="K6">
-        <v>1.062074006024111</v>
+        <v>1.070772283693411</v>
       </c>
       <c r="L6">
-        <v>1.05940962359293</v>
+        <v>1.074659467806836</v>
       </c>
       <c r="M6">
-        <v>1.065896744567876</v>
+        <v>1.080379977784216</v>
       </c>
       <c r="N6">
-        <v>1.06243602572423</v>
+        <v>1.074505049492416</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.040983308113061</v>
+        <v>1.068275382078193</v>
       </c>
       <c r="D7">
-        <v>1.051187747106034</v>
+        <v>1.068081843706666</v>
       </c>
       <c r="E7">
-        <v>1.048186121730435</v>
+        <v>1.071902396751169</v>
       </c>
       <c r="F7">
-        <v>1.054791245622008</v>
+        <v>1.077645863886351</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058489418544406</v>
+        <v>1.052351098965558</v>
       </c>
       <c r="J7">
-        <v>1.059388010909242</v>
+        <v>1.072655643311706</v>
       </c>
       <c r="K7">
-        <v>1.06070246425359</v>
+        <v>1.070486627057213</v>
       </c>
       <c r="L7">
-        <v>1.057732971692615</v>
+        <v>1.07429816899074</v>
       </c>
       <c r="M7">
-        <v>1.064267682368439</v>
+        <v>1.080028218584462</v>
       </c>
       <c r="N7">
-        <v>1.060892463398237</v>
+        <v>1.07417893736053</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032037931312322</v>
+        <v>1.066456312140949</v>
       </c>
       <c r="D8">
-        <v>1.044185619681277</v>
+        <v>1.066641147405873</v>
       </c>
       <c r="E8">
-        <v>1.039859879004146</v>
+        <v>1.070146379089376</v>
       </c>
       <c r="F8">
-        <v>1.046684284088348</v>
+        <v>1.07593141010705</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055138501498347</v>
+        <v>1.0517688704938</v>
       </c>
       <c r="J8">
-        <v>1.052755910843873</v>
+        <v>1.071291699477972</v>
       </c>
       <c r="K8">
-        <v>1.054798569890418</v>
+        <v>1.069289700793611</v>
       </c>
       <c r="L8">
-        <v>1.050525692063552</v>
+        <v>1.07278576882935</v>
       </c>
       <c r="M8">
-        <v>1.0572669465264</v>
+        <v>1.07855581708401</v>
       </c>
       <c r="N8">
-        <v>1.054250944990062</v>
+        <v>1.072813056570106</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015250912313844</v>
+        <v>1.063243803856691</v>
       </c>
       <c r="D9">
-        <v>1.031072432734559</v>
+        <v>1.064095760972361</v>
       </c>
       <c r="E9">
-        <v>1.024279220720498</v>
+        <v>1.0670475572455</v>
       </c>
       <c r="F9">
-        <v>1.031526757870835</v>
+        <v>1.072906387111666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04876524159815</v>
+        <v>1.050729664568405</v>
       </c>
       <c r="J9">
-        <v>1.040276382077344</v>
+        <v>1.068877541495544</v>
       </c>
       <c r="K9">
-        <v>1.043680723448267</v>
+        <v>1.067169330713042</v>
       </c>
       <c r="L9">
-        <v>1.03699029400714</v>
+        <v>1.070112072660167</v>
       </c>
       <c r="M9">
-        <v>1.044128236023325</v>
+        <v>1.075953092094771</v>
       </c>
       <c r="N9">
-        <v>1.041753693861262</v>
+        <v>1.070395470206434</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003253597623988</v>
+        <v>1.06109706959807</v>
       </c>
       <c r="D10">
-        <v>1.021725982210507</v>
+        <v>1.062394140646258</v>
       </c>
       <c r="E10">
-        <v>1.013178911204126</v>
+        <v>1.064978396004483</v>
       </c>
       <c r="F10">
-        <v>1.020738333797049</v>
+        <v>1.070886821236318</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044156499921438</v>
+        <v>1.050027851800133</v>
       </c>
       <c r="J10">
-        <v>1.03133871937701</v>
+        <v>1.067260680819452</v>
       </c>
       <c r="K10">
-        <v>1.035713742802439</v>
+        <v>1.065748012889875</v>
       </c>
       <c r="L10">
-        <v>1.027314224601006</v>
+        <v>1.068323555866997</v>
       </c>
       <c r="M10">
-        <v>1.034742981543862</v>
+        <v>1.074212235233164</v>
       </c>
       <c r="N10">
-        <v>1.03280333865473</v>
+        <v>1.068776313402727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9978371348403802</v>
+        <v>1.060166240789177</v>
       </c>
       <c r="D11">
-        <v>1.017514032232016</v>
+        <v>1.06165616247825</v>
       </c>
       <c r="E11">
-        <v>1.008176859194743</v>
+        <v>1.064081590261484</v>
       </c>
       <c r="F11">
-        <v>1.015879741845983</v>
+        <v>1.070011589421878</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042063940112952</v>
+        <v>1.049721798899293</v>
       </c>
       <c r="J11">
-        <v>1.027300169168382</v>
+        <v>1.066558752775639</v>
       </c>
       <c r="K11">
-        <v>1.032113048857415</v>
+        <v>1.065130689465994</v>
       </c>
       <c r="L11">
-        <v>1.022946202005436</v>
+        <v>1.067547619982952</v>
       </c>
       <c r="M11">
-        <v>1.030508276790457</v>
+        <v>1.073457022497018</v>
       </c>
       <c r="N11">
-        <v>1.028759053241578</v>
+        <v>1.068073388540579</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9957889800550311</v>
+        <v>1.059820291427459</v>
       </c>
       <c r="D12">
-        <v>1.015922669199678</v>
+        <v>1.061381865572649</v>
       </c>
       <c r="E12">
-        <v>1.006286936292143</v>
+        <v>1.06374834459341</v>
       </c>
       <c r="F12">
-        <v>1.014044502962857</v>
+        <v>1.069686372512769</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041270982571597</v>
+        <v>1.049607790121942</v>
       </c>
       <c r="J12">
-        <v>1.025772633259796</v>
+        <v>1.066297748188992</v>
       </c>
       <c r="K12">
-        <v>1.030751044298353</v>
+        <v>1.064901101407074</v>
       </c>
       <c r="L12">
-        <v>1.021294671641939</v>
+        <v>1.067259173410919</v>
       </c>
       <c r="M12">
-        <v>1.028907489772925</v>
+        <v>1.073176286688106</v>
       </c>
       <c r="N12">
-        <v>1.027229348056791</v>
+        <v>1.067812013297482</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9962300074673887</v>
+        <v>1.059894507800647</v>
       </c>
       <c r="D13">
-        <v>1.016265273516106</v>
+        <v>1.061440711350643</v>
       </c>
       <c r="E13">
-        <v>1.006693820871271</v>
+        <v>1.063819832979633</v>
       </c>
       <c r="F13">
-        <v>1.014439592108939</v>
+        <v>1.069756138006854</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041441804037517</v>
+        <v>1.049632260227403</v>
       </c>
       <c r="J13">
-        <v>1.026101573453565</v>
+        <v>1.066353747174938</v>
       </c>
       <c r="K13">
-        <v>1.031044342125676</v>
+        <v>1.064950361856186</v>
       </c>
       <c r="L13">
-        <v>1.021650284709855</v>
+        <v>1.067321056636905</v>
       </c>
       <c r="M13">
-        <v>1.029252160903047</v>
+        <v>1.073236515323718</v>
       </c>
       <c r="N13">
-        <v>1.027558755383365</v>
+        <v>1.067868091808411</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9976685913535432</v>
+        <v>1.060137648582869</v>
       </c>
       <c r="D14">
-        <v>1.017383050487242</v>
+        <v>1.061633492683613</v>
       </c>
       <c r="E14">
-        <v>1.008021304989587</v>
+        <v>1.064054046794654</v>
       </c>
       <c r="F14">
-        <v>1.015728678517922</v>
+        <v>1.069984709301548</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04199872098319</v>
+        <v>1.049712381583098</v>
       </c>
       <c r="J14">
-        <v>1.027174475503779</v>
+        <v>1.066537183736131</v>
       </c>
       <c r="K14">
-        <v>1.032000977475376</v>
+        <v>1.065111717514473</v>
       </c>
       <c r="L14">
-        <v>1.022810292776024</v>
+        <v>1.067523781606642</v>
       </c>
       <c r="M14">
-        <v>1.030376536366912</v>
+        <v>1.07343382122231</v>
       </c>
       <c r="N14">
-        <v>1.028633181077554</v>
+        <v>1.068051788870561</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9985500538772178</v>
+        <v>1.060287429214104</v>
       </c>
       <c r="D15">
-        <v>1.018068124345955</v>
+        <v>1.061752247795723</v>
       </c>
       <c r="E15">
-        <v>1.00883489794112</v>
+        <v>1.064198336000774</v>
       </c>
       <c r="F15">
-        <v>1.016518802706767</v>
+        <v>1.070125523996182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042339741294885</v>
+        <v>1.049761703587781</v>
       </c>
       <c r="J15">
-        <v>1.027831822123554</v>
+        <v>1.066650168186687</v>
       </c>
       <c r="K15">
-        <v>1.032587079764389</v>
+        <v>1.065211095965924</v>
       </c>
       <c r="L15">
-        <v>1.023521089636849</v>
+        <v>1.06764865660973</v>
       </c>
       <c r="M15">
-        <v>1.031065544499967</v>
+        <v>1.073555359124232</v>
       </c>
       <c r="N15">
-        <v>1.029291461204928</v>
+        <v>1.068164933771996</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003608158443287</v>
+        <v>1.06115881818941</v>
       </c>
       <c r="D16">
-        <v>1.022001869080654</v>
+        <v>1.06244309294412</v>
       </c>
       <c r="E16">
-        <v>1.013506549302073</v>
+        <v>1.065037895805182</v>
       </c>
       <c r="F16">
-        <v>1.021056639087811</v>
+        <v>1.070944891362013</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04429324082237</v>
+        <v>1.050048117766351</v>
       </c>
       <c r="J16">
-        <v>1.031603019071404</v>
+        <v>1.067307226828071</v>
       </c>
       <c r="K16">
-        <v>1.035949374225786</v>
+        <v>1.065788942616353</v>
       </c>
       <c r="L16">
-        <v>1.027600172662151</v>
+        <v>1.068375020255788</v>
       </c>
       <c r="M16">
-        <v>1.035020246771868</v>
+        <v>1.074262326136714</v>
       </c>
       <c r="N16">
-        <v>1.033068013685005</v>
+        <v>1.068822925512017</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006719681489678</v>
+        <v>1.06170507090889</v>
       </c>
       <c r="D17">
-        <v>1.02442386249758</v>
+        <v>1.062876127129971</v>
       </c>
       <c r="E17">
-        <v>1.016382884731786</v>
+        <v>1.065564299599751</v>
       </c>
       <c r="F17">
-        <v>1.023851376347385</v>
+        <v>1.071458655706513</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045491912036553</v>
+        <v>1.050227197156874</v>
       </c>
       <c r="J17">
-        <v>1.033922059061279</v>
+        <v>1.067718892930027</v>
       </c>
       <c r="K17">
-        <v>1.038016788982999</v>
+        <v>1.066150903708438</v>
       </c>
       <c r="L17">
-        <v>1.030109633408659</v>
+        <v>1.068830245113175</v>
       </c>
       <c r="M17">
-        <v>1.037453741024083</v>
+        <v>1.074705407277966</v>
       </c>
       <c r="N17">
-        <v>1.035390346977664</v>
+        <v>1.069235176227057</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008513421498402</v>
+        <v>1.062023567908183</v>
       </c>
       <c r="D18">
-        <v>1.025820815350614</v>
+        <v>1.063128596470008</v>
       </c>
       <c r="E18">
-        <v>1.018041923295867</v>
+        <v>1.06587126081701</v>
       </c>
       <c r="F18">
-        <v>1.025463621826848</v>
+        <v>1.071758254053095</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046181805391774</v>
+        <v>1.050331442546469</v>
       </c>
       <c r="J18">
-        <v>1.035258615799163</v>
+        <v>1.067958835810878</v>
       </c>
       <c r="K18">
-        <v>1.039208250905017</v>
+        <v>1.066361848017199</v>
       </c>
       <c r="L18">
-        <v>1.031556330906459</v>
+        <v>1.069095626013532</v>
       </c>
       <c r="M18">
-        <v>1.038856833549867</v>
+        <v>1.074963713237568</v>
       </c>
       <c r="N18">
-        <v>1.036728801779421</v>
+        <v>1.06947545985432</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00912153568785</v>
+        <v>1.062132146476618</v>
       </c>
       <c r="D19">
-        <v>1.026294527353191</v>
+        <v>1.063214663080425</v>
       </c>
       <c r="E19">
-        <v>1.01860451717965</v>
+        <v>1.065975913038112</v>
       </c>
       <c r="F19">
-        <v>1.026010392714946</v>
+        <v>1.07186039732609</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046415500633875</v>
+        <v>1.050366952212771</v>
       </c>
       <c r="J19">
-        <v>1.035711676826169</v>
+        <v>1.068040620580924</v>
       </c>
       <c r="K19">
-        <v>1.039612114994554</v>
+        <v>1.066433743905312</v>
       </c>
       <c r="L19">
-        <v>1.032046793903159</v>
+        <v>1.069186089747302</v>
       </c>
       <c r="M19">
-        <v>1.039332544775721</v>
+        <v>1.075051765994406</v>
       </c>
       <c r="N19">
-        <v>1.037182506205052</v>
+        <v>1.06955736076812</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006388053294436</v>
+        <v>1.061646475926066</v>
       </c>
       <c r="D20">
-        <v>1.024165649441666</v>
+        <v>1.062829678292002</v>
       </c>
       <c r="E20">
-        <v>1.016076230785822</v>
+        <v>1.065507829892689</v>
       </c>
       <c r="F20">
-        <v>1.023553393280262</v>
+        <v>1.071403541106572</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045364272631274</v>
+        <v>1.050208005224157</v>
       </c>
       <c r="J20">
-        <v>1.033674927892194</v>
+        <v>1.067674743185967</v>
       </c>
       <c r="K20">
-        <v>1.037796479925775</v>
+        <v>1.066112087507174</v>
       </c>
       <c r="L20">
-        <v>1.02984216896175</v>
+        <v>1.068781418729556</v>
       </c>
       <c r="M20">
-        <v>1.037194353375399</v>
+        <v>1.074657882940926</v>
       </c>
       <c r="N20">
-        <v>1.035142864853972</v>
+        <v>1.069190963785296</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9972459901575473</v>
+        <v>1.0600660551993</v>
       </c>
       <c r="D21">
-        <v>1.017054652411671</v>
+        <v>1.061576728357305</v>
       </c>
       <c r="E21">
-        <v>1.007631297735219</v>
+        <v>1.063985080350985</v>
       </c>
       <c r="F21">
-        <v>1.015349938723816</v>
+        <v>1.069917404015553</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041835165562588</v>
+        <v>1.049688796887267</v>
       </c>
       <c r="J21">
-        <v>1.02685930837087</v>
+        <v>1.066483173929376</v>
       </c>
       <c r="K21">
-        <v>1.031719965937697</v>
+        <v>1.065064210237552</v>
       </c>
       <c r="L21">
-        <v>1.02246952094053</v>
+        <v>1.067464090526736</v>
       </c>
       <c r="M21">
-        <v>1.030046222702291</v>
+        <v>1.073375725554998</v>
       </c>
       <c r="N21">
-        <v>1.028317566371166</v>
+        <v>1.067997702363685</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.991286606777334</v>
+        <v>1.059071232847434</v>
       </c>
       <c r="D22">
-        <v>1.012427077752861</v>
+        <v>1.060787911685479</v>
       </c>
       <c r="E22">
-        <v>1.00213534937671</v>
+        <v>1.063026900531945</v>
       </c>
       <c r="F22">
-        <v>1.010013977008293</v>
+        <v>1.06898233227643</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03952485477415</v>
+        <v>1.049360456440681</v>
       </c>
       <c r="J22">
-        <v>1.022414061238088</v>
+        <v>1.065732380760083</v>
       </c>
       <c r="K22">
-        <v>1.027756307225916</v>
+        <v>1.064403707880047</v>
       </c>
       <c r="L22">
-        <v>1.017664622935357</v>
+        <v>1.066634504241594</v>
       </c>
       <c r="M22">
-        <v>1.025389631502407</v>
+        <v>1.072568329460162</v>
       </c>
       <c r="N22">
-        <v>1.023866006477578</v>
+        <v>1.067245842981975</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9944669106971562</v>
+        <v>1.05959871792722</v>
       </c>
       <c r="D23">
-        <v>1.014895850533585</v>
+        <v>1.06120617795378</v>
       </c>
       <c r="E23">
-        <v>1.005067450257676</v>
+        <v>1.063534924168699</v>
       </c>
       <c r="F23">
-        <v>1.01286044332728</v>
+        <v>1.069478097372721</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040758670703421</v>
+        <v>1.049534696110117</v>
       </c>
       <c r="J23">
-        <v>1.024786514952508</v>
+        <v>1.0661305441294</v>
       </c>
       <c r="K23">
-        <v>1.029871767354852</v>
+        <v>1.064754011293493</v>
       </c>
       <c r="L23">
-        <v>1.020228682957954</v>
+        <v>1.06707441122612</v>
       </c>
       <c r="M23">
-        <v>1.027874352576134</v>
+        <v>1.072996465604966</v>
       </c>
       <c r="N23">
-        <v>1.026241829348396</v>
+        <v>1.067644571788946</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006537966969006</v>
+        <v>1.0616729528562</v>
       </c>
       <c r="D24">
-        <v>1.024282373339991</v>
+        <v>1.06285066686893</v>
       </c>
       <c r="E24">
-        <v>1.01621485203913</v>
+        <v>1.065533346373249</v>
       </c>
       <c r="F24">
-        <v>1.023688094068905</v>
+        <v>1.07142844524322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045421975952115</v>
+        <v>1.050216677876839</v>
       </c>
       <c r="J24">
-        <v>1.03378664542634</v>
+        <v>1.067694693095354</v>
       </c>
       <c r="K24">
-        <v>1.037896072548179</v>
+        <v>1.066129627438222</v>
       </c>
       <c r="L24">
-        <v>1.029963077086953</v>
+        <v>1.068803481715459</v>
       </c>
       <c r="M24">
-        <v>1.037311609772857</v>
+        <v>1.074679357562464</v>
       </c>
       <c r="N24">
-        <v>1.035254741039831</v>
+        <v>1.069210942025842</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01972346054877</v>
+        <v>1.064075183995139</v>
       </c>
       <c r="D25">
-        <v>1.034562376607423</v>
+        <v>1.064754617766779</v>
       </c>
       <c r="E25">
-        <v>1.02842476680989</v>
+        <v>1.067849236082261</v>
       </c>
       <c r="F25">
-        <v>1.035558072433721</v>
+        <v>1.073688918897511</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050472744803814</v>
+        <v>1.050999904443262</v>
       </c>
       <c r="J25">
-        <v>1.043604807313902</v>
+        <v>1.069502951326533</v>
       </c>
       <c r="K25">
-        <v>1.046646843449117</v>
+        <v>1.06771884739313</v>
       </c>
       <c r="L25">
-        <v>1.040597286631239</v>
+        <v>1.07080433678263</v>
       </c>
       <c r="M25">
-        <v>1.047628379021406</v>
+        <v>1.076626948794407</v>
       </c>
       <c r="N25">
-        <v>1.045086845843432</v>
+        <v>1.07102176819112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.065987540171553</v>
+        <v>1.029669431125588</v>
       </c>
       <c r="D2">
-        <v>1.06626980592657</v>
+        <v>1.042333209534743</v>
       </c>
       <c r="E2">
-        <v>1.069694012749479</v>
+        <v>1.037658098249377</v>
       </c>
       <c r="F2">
-        <v>1.07548978111005</v>
+        <v>1.044541280128303</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051618085871973</v>
+        <v>1.05424553905919</v>
       </c>
       <c r="J2">
-        <v>1.070939845295699</v>
+        <v>1.050997553599761</v>
       </c>
       <c r="K2">
-        <v>1.068980807371998</v>
+        <v>1.053232673049372</v>
       </c>
       <c r="L2">
-        <v>1.072395836392625</v>
+        <v>1.048616588852214</v>
       </c>
       <c r="M2">
-        <v>1.078176214448922</v>
+        <v>1.05541309394048</v>
       </c>
       <c r="N2">
-        <v>1.072460702714536</v>
+        <v>1.052490090676977</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067374068262262</v>
+        <v>1.036599038237069</v>
       </c>
       <c r="D3">
-        <v>1.067368066606238</v>
+        <v>1.04775476616328</v>
       </c>
       <c r="E3">
-        <v>1.071032202015362</v>
+        <v>1.044103204585509</v>
       </c>
       <c r="F3">
-        <v>1.07679624286016</v>
+        <v>1.050815267768821</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052063197447674</v>
+        <v>1.056851538420688</v>
       </c>
       <c r="J3">
-        <v>1.071980122685763</v>
+        <v>1.056139373421745</v>
       </c>
       <c r="K3">
-        <v>1.069893922464409</v>
+        <v>1.0578110108126</v>
       </c>
       <c r="L3">
-        <v>1.073548951770737</v>
+        <v>1.054201240810273</v>
       </c>
       <c r="M3">
-        <v>1.079298802755824</v>
+        <v>1.060836761225596</v>
       </c>
       <c r="N3">
-        <v>1.073502457417816</v>
+        <v>1.057639212472884</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.068270349286634</v>
+        <v>1.040959083226491</v>
       </c>
       <c r="D4">
-        <v>1.068077858426915</v>
+        <v>1.051168772820305</v>
       </c>
       <c r="E4">
-        <v>1.071897537051234</v>
+        <v>1.048163550775968</v>
       </c>
       <c r="F4">
-        <v>1.077641118955275</v>
+        <v>1.054769262737068</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05234949458882</v>
+        <v>1.058480393439063</v>
       </c>
       <c r="J4">
-        <v>1.072651872903893</v>
+        <v>1.059370071420732</v>
       </c>
       <c r="K4">
-        <v>1.070483319425082</v>
+        <v>1.060686499957935</v>
       </c>
       <c r="L4">
-        <v>1.074293986302073</v>
+        <v>1.057713461466609</v>
       </c>
       <c r="M4">
-        <v>1.08002414636963</v>
+        <v>1.064248726932426</v>
       </c>
       <c r="N4">
-        <v>1.074175161598305</v>
+        <v>1.060874498433595</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068646936317945</v>
+        <v>1.042763918752408</v>
       </c>
       <c r="D5">
-        <v>1.068376052968287</v>
+        <v>1.052582586660164</v>
       </c>
       <c r="E5">
-        <v>1.07226119321984</v>
+        <v>1.049845504894362</v>
       </c>
       <c r="F5">
-        <v>1.077996190816976</v>
+        <v>1.056407489223951</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052469443809223</v>
+        <v>1.059152008853643</v>
       </c>
       <c r="J5">
-        <v>1.072933950045571</v>
+        <v>1.060706285759721</v>
       </c>
       <c r="K5">
-        <v>1.070730757796366</v>
+        <v>1.061875504058167</v>
       </c>
       <c r="L5">
-        <v>1.074606937206721</v>
+        <v>1.059166905330542</v>
       </c>
       <c r="M5">
-        <v>1.080328833808568</v>
+        <v>1.06566090488395</v>
       </c>
       <c r="N5">
-        <v>1.074457639321881</v>
+        <v>1.062212610350211</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068710154792122</v>
+        <v>1.043065351463244</v>
       </c>
       <c r="D6">
-        <v>1.06842610939057</v>
+        <v>1.052818745595999</v>
       </c>
       <c r="E6">
-        <v>1.072322245145835</v>
+        <v>1.050126482449316</v>
       </c>
       <c r="F6">
-        <v>1.078055802365557</v>
+        <v>1.05668118054641</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052489559810017</v>
+        <v>1.059264020850349</v>
       </c>
       <c r="J6">
-        <v>1.072981292983704</v>
+        <v>1.060929384308211</v>
       </c>
       <c r="K6">
-        <v>1.070772283693411</v>
+        <v>1.062074006024111</v>
       </c>
       <c r="L6">
-        <v>1.074659467806836</v>
+        <v>1.05940962359293</v>
       </c>
       <c r="M6">
-        <v>1.080379977784216</v>
+        <v>1.065896744567876</v>
       </c>
       <c r="N6">
-        <v>1.074505049492416</v>
+        <v>1.06243602572423</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.068275382078193</v>
+        <v>1.04098330811306</v>
       </c>
       <c r="D7">
-        <v>1.068081843706666</v>
+        <v>1.051187747106034</v>
       </c>
       <c r="E7">
-        <v>1.071902396751169</v>
+        <v>1.048186121730434</v>
       </c>
       <c r="F7">
-        <v>1.077645863886351</v>
+        <v>1.054791245622007</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052351098965558</v>
+        <v>1.058489418544405</v>
       </c>
       <c r="J7">
-        <v>1.072655643311706</v>
+        <v>1.059388010909242</v>
       </c>
       <c r="K7">
-        <v>1.070486627057213</v>
+        <v>1.06070246425359</v>
       </c>
       <c r="L7">
-        <v>1.07429816899074</v>
+        <v>1.057732971692614</v>
       </c>
       <c r="M7">
-        <v>1.080028218584462</v>
+        <v>1.064267682368438</v>
       </c>
       <c r="N7">
-        <v>1.07417893736053</v>
+        <v>1.060892463398236</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066456312140949</v>
+        <v>1.032037931312324</v>
       </c>
       <c r="D8">
-        <v>1.066641147405873</v>
+        <v>1.044185619681278</v>
       </c>
       <c r="E8">
-        <v>1.070146379089376</v>
+        <v>1.039859879004148</v>
       </c>
       <c r="F8">
-        <v>1.07593141010705</v>
+        <v>1.04668428408835</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0517688704938</v>
+        <v>1.055138501498348</v>
       </c>
       <c r="J8">
-        <v>1.071291699477972</v>
+        <v>1.052755910843874</v>
       </c>
       <c r="K8">
-        <v>1.069289700793611</v>
+        <v>1.05479856989042</v>
       </c>
       <c r="L8">
-        <v>1.07278576882935</v>
+        <v>1.050525692063554</v>
       </c>
       <c r="M8">
-        <v>1.07855581708401</v>
+        <v>1.057266946526402</v>
       </c>
       <c r="N8">
-        <v>1.072813056570106</v>
+        <v>1.054250944990064</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.063243803856691</v>
+        <v>1.015250912313842</v>
       </c>
       <c r="D9">
-        <v>1.064095760972361</v>
+        <v>1.031072432734557</v>
       </c>
       <c r="E9">
-        <v>1.0670475572455</v>
+        <v>1.024279220720495</v>
       </c>
       <c r="F9">
-        <v>1.072906387111666</v>
+        <v>1.031526757870833</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050729664568405</v>
+        <v>1.048765241598149</v>
       </c>
       <c r="J9">
-        <v>1.068877541495544</v>
+        <v>1.040276382077341</v>
       </c>
       <c r="K9">
-        <v>1.067169330713042</v>
+        <v>1.043680723448265</v>
       </c>
       <c r="L9">
-        <v>1.070112072660167</v>
+        <v>1.036990294007138</v>
       </c>
       <c r="M9">
-        <v>1.075953092094771</v>
+        <v>1.044128236023323</v>
       </c>
       <c r="N9">
-        <v>1.070395470206434</v>
+        <v>1.04175369386126</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.06109706959807</v>
+        <v>1.003253597623988</v>
       </c>
       <c r="D10">
-        <v>1.062394140646258</v>
+        <v>1.021725982210507</v>
       </c>
       <c r="E10">
-        <v>1.064978396004483</v>
+        <v>1.013178911204126</v>
       </c>
       <c r="F10">
-        <v>1.070886821236318</v>
+        <v>1.020738333797049</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050027851800133</v>
+        <v>1.044156499921438</v>
       </c>
       <c r="J10">
-        <v>1.067260680819452</v>
+        <v>1.03133871937701</v>
       </c>
       <c r="K10">
-        <v>1.065748012889875</v>
+        <v>1.035713742802439</v>
       </c>
       <c r="L10">
-        <v>1.068323555866997</v>
+        <v>1.027314224601006</v>
       </c>
       <c r="M10">
-        <v>1.074212235233164</v>
+        <v>1.034742981543862</v>
       </c>
       <c r="N10">
-        <v>1.068776313402727</v>
+        <v>1.032803338654729</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.060166240789177</v>
+        <v>0.9978371348403803</v>
       </c>
       <c r="D11">
-        <v>1.06165616247825</v>
+        <v>1.017514032232016</v>
       </c>
       <c r="E11">
-        <v>1.064081590261484</v>
+        <v>1.008176859194744</v>
       </c>
       <c r="F11">
-        <v>1.070011589421878</v>
+        <v>1.015879741845983</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049721798899293</v>
+        <v>1.042063940112952</v>
       </c>
       <c r="J11">
-        <v>1.066558752775639</v>
+        <v>1.027300169168382</v>
       </c>
       <c r="K11">
-        <v>1.065130689465994</v>
+        <v>1.032113048857416</v>
       </c>
       <c r="L11">
-        <v>1.067547619982952</v>
+        <v>1.022946202005436</v>
       </c>
       <c r="M11">
-        <v>1.073457022497018</v>
+        <v>1.030508276790457</v>
       </c>
       <c r="N11">
-        <v>1.068073388540579</v>
+        <v>1.028759053241578</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.059820291427459</v>
+        <v>0.9957889800550298</v>
       </c>
       <c r="D12">
-        <v>1.061381865572649</v>
+        <v>1.015922669199678</v>
       </c>
       <c r="E12">
-        <v>1.06374834459341</v>
+        <v>1.006286936292141</v>
       </c>
       <c r="F12">
-        <v>1.069686372512769</v>
+        <v>1.014044502962856</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049607790121942</v>
+        <v>1.041270982571596</v>
       </c>
       <c r="J12">
-        <v>1.066297748188992</v>
+        <v>1.025772633259795</v>
       </c>
       <c r="K12">
-        <v>1.064901101407074</v>
+        <v>1.030751044298352</v>
       </c>
       <c r="L12">
-        <v>1.067259173410919</v>
+        <v>1.021294671641937</v>
       </c>
       <c r="M12">
-        <v>1.073176286688106</v>
+        <v>1.028907489772924</v>
       </c>
       <c r="N12">
-        <v>1.067812013297482</v>
+        <v>1.027229348056789</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.059894507800647</v>
+        <v>0.9962300074673885</v>
       </c>
       <c r="D13">
-        <v>1.061440711350643</v>
+        <v>1.016265273516106</v>
       </c>
       <c r="E13">
-        <v>1.063819832979633</v>
+        <v>1.006693820871271</v>
       </c>
       <c r="F13">
-        <v>1.069756138006854</v>
+        <v>1.014439592108939</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049632260227403</v>
+        <v>1.041441804037517</v>
       </c>
       <c r="J13">
-        <v>1.066353747174938</v>
+        <v>1.026101573453565</v>
       </c>
       <c r="K13">
-        <v>1.064950361856186</v>
+        <v>1.031044342125676</v>
       </c>
       <c r="L13">
-        <v>1.067321056636905</v>
+        <v>1.021650284709855</v>
       </c>
       <c r="M13">
-        <v>1.073236515323718</v>
+        <v>1.029252160903047</v>
       </c>
       <c r="N13">
-        <v>1.067868091808411</v>
+        <v>1.027558755383365</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.060137648582869</v>
+        <v>0.9976685913535416</v>
       </c>
       <c r="D14">
-        <v>1.061633492683613</v>
+        <v>1.01738305048724</v>
       </c>
       <c r="E14">
-        <v>1.064054046794654</v>
+        <v>1.008021304989585</v>
       </c>
       <c r="F14">
-        <v>1.069984709301548</v>
+        <v>1.015728678517919</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049712381583098</v>
+        <v>1.041998720983189</v>
       </c>
       <c r="J14">
-        <v>1.066537183736131</v>
+        <v>1.027174475503778</v>
       </c>
       <c r="K14">
-        <v>1.065111717514473</v>
+        <v>1.032000977475374</v>
       </c>
       <c r="L14">
-        <v>1.067523781606642</v>
+        <v>1.022810292776022</v>
       </c>
       <c r="M14">
-        <v>1.07343382122231</v>
+        <v>1.03037653636691</v>
       </c>
       <c r="N14">
-        <v>1.068051788870561</v>
+        <v>1.028633181077552</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060287429214104</v>
+        <v>0.9985500538772163</v>
       </c>
       <c r="D15">
-        <v>1.061752247795723</v>
+        <v>1.018068124345954</v>
       </c>
       <c r="E15">
-        <v>1.064198336000774</v>
+        <v>1.008834897941119</v>
       </c>
       <c r="F15">
-        <v>1.070125523996182</v>
+        <v>1.016518802706765</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049761703587781</v>
+        <v>1.042339741294884</v>
       </c>
       <c r="J15">
-        <v>1.066650168186687</v>
+        <v>1.027831822123553</v>
       </c>
       <c r="K15">
-        <v>1.065211095965924</v>
+        <v>1.032587079764388</v>
       </c>
       <c r="L15">
-        <v>1.06764865660973</v>
+        <v>1.023521089636847</v>
       </c>
       <c r="M15">
-        <v>1.073555359124232</v>
+        <v>1.031065544499965</v>
       </c>
       <c r="N15">
-        <v>1.068164933771996</v>
+        <v>1.029291461204926</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06115881818941</v>
+        <v>1.003608158443286</v>
       </c>
       <c r="D16">
-        <v>1.06244309294412</v>
+        <v>1.022001869080654</v>
       </c>
       <c r="E16">
-        <v>1.065037895805182</v>
+        <v>1.013506549302073</v>
       </c>
       <c r="F16">
-        <v>1.070944891362013</v>
+        <v>1.021056639087811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050048117766351</v>
+        <v>1.04429324082237</v>
       </c>
       <c r="J16">
-        <v>1.067307226828071</v>
+        <v>1.031603019071404</v>
       </c>
       <c r="K16">
-        <v>1.065788942616353</v>
+        <v>1.035949374225786</v>
       </c>
       <c r="L16">
-        <v>1.068375020255788</v>
+        <v>1.027600172662151</v>
       </c>
       <c r="M16">
-        <v>1.074262326136714</v>
+        <v>1.035020246771867</v>
       </c>
       <c r="N16">
-        <v>1.068822925512017</v>
+        <v>1.033068013685005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06170507090889</v>
+        <v>1.006719681489679</v>
       </c>
       <c r="D17">
-        <v>1.062876127129971</v>
+        <v>1.024423862497581</v>
       </c>
       <c r="E17">
-        <v>1.065564299599751</v>
+        <v>1.016382884731788</v>
       </c>
       <c r="F17">
-        <v>1.071458655706513</v>
+        <v>1.023851376347386</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050227197156874</v>
+        <v>1.045491912036554</v>
       </c>
       <c r="J17">
-        <v>1.067718892930027</v>
+        <v>1.033922059061281</v>
       </c>
       <c r="K17">
-        <v>1.066150903708438</v>
+        <v>1.038016788983</v>
       </c>
       <c r="L17">
-        <v>1.068830245113175</v>
+        <v>1.03010963340866</v>
       </c>
       <c r="M17">
-        <v>1.074705407277966</v>
+        <v>1.037453741024084</v>
       </c>
       <c r="N17">
-        <v>1.069235176227057</v>
+        <v>1.035390346977665</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.062023567908183</v>
+        <v>1.008513421498403</v>
       </c>
       <c r="D18">
-        <v>1.063128596470008</v>
+        <v>1.025820815350615</v>
       </c>
       <c r="E18">
-        <v>1.06587126081701</v>
+        <v>1.018041923295867</v>
       </c>
       <c r="F18">
-        <v>1.071758254053095</v>
+        <v>1.025463621826849</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050331442546469</v>
+        <v>1.046181805391774</v>
       </c>
       <c r="J18">
-        <v>1.067958835810878</v>
+        <v>1.035258615799164</v>
       </c>
       <c r="K18">
-        <v>1.066361848017199</v>
+        <v>1.039208250905018</v>
       </c>
       <c r="L18">
-        <v>1.069095626013532</v>
+        <v>1.03155633090646</v>
       </c>
       <c r="M18">
-        <v>1.074963713237568</v>
+        <v>1.038856833549868</v>
       </c>
       <c r="N18">
-        <v>1.06947545985432</v>
+        <v>1.036728801779422</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.062132146476618</v>
+        <v>1.009121535687851</v>
       </c>
       <c r="D19">
-        <v>1.063214663080425</v>
+        <v>1.026294527353191</v>
       </c>
       <c r="E19">
-        <v>1.065975913038112</v>
+        <v>1.018604517179651</v>
       </c>
       <c r="F19">
-        <v>1.07186039732609</v>
+        <v>1.026010392714947</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050366952212771</v>
+        <v>1.046415500633875</v>
       </c>
       <c r="J19">
-        <v>1.068040620580924</v>
+        <v>1.035711676826169</v>
       </c>
       <c r="K19">
-        <v>1.066433743905312</v>
+        <v>1.039612114994555</v>
       </c>
       <c r="L19">
-        <v>1.069186089747302</v>
+        <v>1.03204679390316</v>
       </c>
       <c r="M19">
-        <v>1.075051765994406</v>
+        <v>1.039332544775721</v>
       </c>
       <c r="N19">
-        <v>1.06955736076812</v>
+        <v>1.037182506205052</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.061646475926066</v>
+        <v>1.006388053294438</v>
       </c>
       <c r="D20">
-        <v>1.062829678292002</v>
+        <v>1.024165649441667</v>
       </c>
       <c r="E20">
-        <v>1.065507829892689</v>
+        <v>1.016076230785824</v>
       </c>
       <c r="F20">
-        <v>1.071403541106572</v>
+        <v>1.023553393280264</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050208005224157</v>
+        <v>1.045364272631275</v>
       </c>
       <c r="J20">
-        <v>1.067674743185967</v>
+        <v>1.033674927892195</v>
       </c>
       <c r="K20">
-        <v>1.066112087507174</v>
+        <v>1.037796479925776</v>
       </c>
       <c r="L20">
-        <v>1.068781418729556</v>
+        <v>1.029842168961751</v>
       </c>
       <c r="M20">
-        <v>1.074657882940926</v>
+        <v>1.0371943533754</v>
       </c>
       <c r="N20">
-        <v>1.069190963785296</v>
+        <v>1.035142864853973</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0600660551993</v>
+        <v>0.9972459901575474</v>
       </c>
       <c r="D21">
-        <v>1.061576728357305</v>
+        <v>1.017054652411671</v>
       </c>
       <c r="E21">
-        <v>1.063985080350985</v>
+        <v>1.007631297735219</v>
       </c>
       <c r="F21">
-        <v>1.069917404015553</v>
+        <v>1.015349938723817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049688796887267</v>
+        <v>1.041835165562588</v>
       </c>
       <c r="J21">
-        <v>1.066483173929376</v>
+        <v>1.02685930837087</v>
       </c>
       <c r="K21">
-        <v>1.065064210237552</v>
+        <v>1.031719965937698</v>
       </c>
       <c r="L21">
-        <v>1.067464090526736</v>
+        <v>1.02246952094053</v>
       </c>
       <c r="M21">
-        <v>1.073375725554998</v>
+        <v>1.030046222702292</v>
       </c>
       <c r="N21">
-        <v>1.067997702363685</v>
+        <v>1.028317566371166</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.059071232847434</v>
+        <v>0.9912866067773339</v>
       </c>
       <c r="D22">
-        <v>1.060787911685479</v>
+        <v>1.012427077752861</v>
       </c>
       <c r="E22">
-        <v>1.063026900531945</v>
+        <v>1.00213534937671</v>
       </c>
       <c r="F22">
-        <v>1.06898233227643</v>
+        <v>1.010013977008293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049360456440681</v>
+        <v>1.03952485477415</v>
       </c>
       <c r="J22">
-        <v>1.065732380760083</v>
+        <v>1.022414061238088</v>
       </c>
       <c r="K22">
-        <v>1.064403707880047</v>
+        <v>1.027756307225916</v>
       </c>
       <c r="L22">
-        <v>1.066634504241594</v>
+        <v>1.017664622935357</v>
       </c>
       <c r="M22">
-        <v>1.072568329460162</v>
+        <v>1.025389631502407</v>
       </c>
       <c r="N22">
-        <v>1.067245842981975</v>
+        <v>1.023866006477578</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05959871792722</v>
+        <v>0.9944669106971551</v>
       </c>
       <c r="D23">
-        <v>1.06120617795378</v>
+        <v>1.014895850533584</v>
       </c>
       <c r="E23">
-        <v>1.063534924168699</v>
+        <v>1.005067450257676</v>
       </c>
       <c r="F23">
-        <v>1.069478097372721</v>
+        <v>1.012860443327279</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049534696110117</v>
+        <v>1.04075867070342</v>
       </c>
       <c r="J23">
-        <v>1.0661305441294</v>
+        <v>1.024786514952507</v>
       </c>
       <c r="K23">
-        <v>1.064754011293493</v>
+        <v>1.02987176735485</v>
       </c>
       <c r="L23">
-        <v>1.06707441122612</v>
+        <v>1.020228682957953</v>
       </c>
       <c r="M23">
-        <v>1.072996465604966</v>
+        <v>1.027874352576133</v>
       </c>
       <c r="N23">
-        <v>1.067644571788946</v>
+        <v>1.026241829348395</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0616729528562</v>
+        <v>1.006537966969007</v>
       </c>
       <c r="D24">
-        <v>1.06285066686893</v>
+        <v>1.024282373339992</v>
       </c>
       <c r="E24">
-        <v>1.065533346373249</v>
+        <v>1.016214852039131</v>
       </c>
       <c r="F24">
-        <v>1.07142844524322</v>
+        <v>1.023688094068906</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050216677876839</v>
+        <v>1.045421975952116</v>
       </c>
       <c r="J24">
-        <v>1.067694693095354</v>
+        <v>1.033786645426342</v>
       </c>
       <c r="K24">
-        <v>1.066129627438222</v>
+        <v>1.03789607254818</v>
       </c>
       <c r="L24">
-        <v>1.068803481715459</v>
+        <v>1.029963077086955</v>
       </c>
       <c r="M24">
-        <v>1.074679357562464</v>
+        <v>1.037311609772858</v>
       </c>
       <c r="N24">
-        <v>1.069210942025842</v>
+        <v>1.035254741039833</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.064075183995139</v>
+        <v>1.019723460548771</v>
       </c>
       <c r="D25">
-        <v>1.064754617766779</v>
+        <v>1.034562376607423</v>
       </c>
       <c r="E25">
-        <v>1.067849236082261</v>
+        <v>1.028424766809891</v>
       </c>
       <c r="F25">
-        <v>1.073688918897511</v>
+        <v>1.035558072433722</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050999904443262</v>
+        <v>1.050472744803815</v>
       </c>
       <c r="J25">
-        <v>1.069502951326533</v>
+        <v>1.043604807313903</v>
       </c>
       <c r="K25">
-        <v>1.06771884739313</v>
+        <v>1.046646843449118</v>
       </c>
       <c r="L25">
-        <v>1.07080433678263</v>
+        <v>1.04059728663124</v>
       </c>
       <c r="M25">
-        <v>1.076626948794407</v>
+        <v>1.047628379021407</v>
       </c>
       <c r="N25">
-        <v>1.07102176819112</v>
+        <v>1.045086845843433</v>
       </c>
     </row>
   </sheetData>
